--- a/NPI Workbook.xlsx
+++ b/NPI Workbook.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\NPIBigDataSetWrangling\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{105DB79B-ABA4-4055-B1E1-2992E0038C7C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15AFF9FA-B19E-4469-920B-110BC38A18E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-57210" yWindow="270" windowWidth="26325" windowHeight="15210" activeTab="1" xr2:uid="{60D20618-A0DD-1549-B800-FCF2A5792263}"/>
+    <workbookView xWindow="-56820" yWindow="780" windowWidth="21600" windowHeight="11295" activeTab="1" xr2:uid="{60D20618-A0DD-1549-B800-FCF2A5792263}"/>
   </bookViews>
   <sheets>
     <sheet name="Columns to Keep" sheetId="1" r:id="rId1"/>
@@ -6418,7 +6418,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10ABC1C6-A30C-894A-B9F1-0FD9E42A4E2F}">
   <dimension ref="A1:I331"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A79" workbookViewId="0">
       <selection activeCell="B50" sqref="B50"/>
     </sheetView>
   </sheetViews>
@@ -8260,8 +8260,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47FA0956-0AD8-D94C-93D5-8A7FE1CC3820}">
   <dimension ref="A1:I331"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="D40" sqref="D40"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -8291,376 +8291,376 @@
       <c r="I1" s="2"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>0</v>
-      </c>
       <c r="B2" t="s">
-        <v>0</v>
+        <v>429</v>
+      </c>
+      <c r="C2" t="s">
+        <v>430</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>1</v>
+        <v>29</v>
       </c>
       <c r="B3" t="s">
-        <v>1</v>
+        <v>379</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>4</v>
+        <v>50</v>
       </c>
       <c r="B4" t="s">
-        <v>375</v>
+        <v>379</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="B5" t="s">
-        <v>376</v>
+        <v>380</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>10</v>
+        <v>51</v>
       </c>
       <c r="B6" t="s">
-        <v>377</v>
+        <v>380</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>17</v>
+        <v>35</v>
       </c>
       <c r="B7" t="s">
-        <v>378</v>
+        <v>381</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>29</v>
+        <v>52</v>
       </c>
       <c r="B8" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>34</v>
+        <v>4</v>
       </c>
       <c r="B9" t="s">
-        <v>380</v>
+        <v>375</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="B10" t="s">
-        <v>381</v>
+        <v>384</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>40</v>
+        <v>55</v>
       </c>
       <c r="B11" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>45</v>
+        <v>17</v>
       </c>
       <c r="B12" t="s">
-        <v>383</v>
+        <v>378</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>46</v>
+        <v>354</v>
       </c>
       <c r="B13" t="s">
-        <v>384</v>
+        <v>378</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>48</v>
+        <v>1</v>
       </c>
       <c r="B14" t="s">
-        <v>385</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="B15" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="B16" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>52</v>
+        <v>63</v>
       </c>
       <c r="B17" t="s">
-        <v>381</v>
+        <v>387</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>53</v>
+        <v>6</v>
       </c>
       <c r="B18" t="s">
-        <v>382</v>
+        <v>376</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>54</v>
+        <v>65</v>
       </c>
       <c r="B19" t="s">
-        <v>383</v>
+        <v>376</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>55</v>
+        <v>80</v>
       </c>
       <c r="B20" t="s">
-        <v>384</v>
+        <v>405</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>56</v>
+        <v>82</v>
       </c>
       <c r="B21" t="s">
-        <v>385</v>
+        <v>406</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>58</v>
+        <v>0</v>
       </c>
       <c r="B22" t="s">
-        <v>386</v>
-      </c>
-      <c r="E22" s="1"/>
-      <c r="F22" s="1"/>
-      <c r="G22" s="1"/>
-      <c r="H22" s="1"/>
-      <c r="I22" s="1"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>63</v>
+        <v>48</v>
       </c>
       <c r="B23" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="B24" t="s">
-        <v>376</v>
+        <v>385</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="B25" t="s">
-        <v>377</v>
+        <v>385</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>70</v>
+        <v>58</v>
       </c>
       <c r="B26" t="s">
-        <v>388</v>
-      </c>
+        <v>386</v>
+      </c>
+      <c r="E26" s="1"/>
+      <c r="F26" s="1"/>
+      <c r="G26" s="1"/>
+      <c r="H26" s="1"/>
+      <c r="I26" s="1"/>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>72</v>
+        <v>348</v>
       </c>
       <c r="B27" t="s">
-        <v>385</v>
+        <v>404</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>73</v>
+        <v>40</v>
       </c>
       <c r="B28" t="s">
-        <v>389</v>
+        <v>382</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>80</v>
+        <v>53</v>
       </c>
       <c r="B29" t="s">
-        <v>405</v>
+        <v>382</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="B30" t="s">
-        <v>406</v>
+        <v>389</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>86</v>
+        <v>124</v>
       </c>
       <c r="B31" t="s">
-        <v>390</v>
+        <v>398</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
+        <v>128</v>
+      </c>
+      <c r="B32" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>132</v>
+      </c>
+      <c r="B33" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>136</v>
+      </c>
+      <c r="B34" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>140</v>
+      </c>
+      <c r="B35" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>144</v>
+      </c>
+      <c r="B36" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>86</v>
+      </c>
+      <c r="B37" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
         <v>92</v>
       </c>
-      <c r="B32" t="s">
+      <c r="B38" t="s">
         <v>391</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
         <v>97</v>
       </c>
-      <c r="B33" t="s">
+      <c r="B39" t="s">
         <v>392</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
         <v>103</v>
       </c>
-      <c r="B34" t="s">
+      <c r="B40" t="s">
         <v>393</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
         <v>108</v>
       </c>
-      <c r="B35" t="s">
+      <c r="B41" t="s">
         <v>394</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
         <v>112</v>
       </c>
-      <c r="B36" t="s">
+      <c r="B42" t="s">
         <v>395</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
         <v>116</v>
       </c>
-      <c r="B37" t="s">
+      <c r="B43" t="s">
         <v>396</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
         <v>120</v>
       </c>
-      <c r="B38" t="s">
+      <c r="B44" t="s">
         <v>397</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
-        <v>124</v>
-      </c>
-      <c r="B39" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
-        <v>128</v>
-      </c>
-      <c r="B40" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
-        <v>132</v>
-      </c>
-      <c r="B41" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
-        <v>136</v>
-      </c>
-      <c r="B42" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
-        <v>140</v>
-      </c>
-      <c r="B43" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
-        <v>144</v>
-      </c>
-      <c r="B44" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>348</v>
+        <v>70</v>
       </c>
       <c r="B45" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>354</v>
+        <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>54</v>
+      </c>
       <c r="B47" t="s">
-        <v>429</v>
-      </c>
-      <c r="C47" t="s">
-        <v>430</v>
+        <v>383</v>
       </c>
     </row>
     <row r="63" spans="5:9" x14ac:dyDescent="0.25">
@@ -8678,9 +8678,8 @@
       <c r="I331" s="1"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="C2:J16385">
-    <sortCondition ref="C2:C16385"/>
-    <sortCondition ref="J2:J16385"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I331">
+    <sortCondition ref="B2:B331"/>
   </sortState>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8692,7 +8691,7 @@
   <dimension ref="A1:Q321"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
